--- a/lib/exps/ro2+oh_o3_c2h6.xlsx
+++ b/lib/exps/ro2+oh_o3_c2h6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/exps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DD2949-0E87-9049-8768-D6187D2920B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953CF675-295F-8343-B166-4A2E328B2F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45900" yWindow="10920" windowWidth="22200" windowHeight="16400" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20600" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
